--- a/data/trans_bre/IP18A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>66,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,15%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>8,77%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,38</t>
+          <t>2,67; 15,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,53</t>
+          <t>-0,27; 11,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,94</t>
+          <t>-5,71; 5,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 13,44</t>
+          <t>-13,29; 13,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 120,98</t>
+          <t>16,21; 144,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 43,86</t>
+          <t>-1,97; 93,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 56,54</t>
+          <t>-33,41; 44,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,72; 128,85</t>
+          <t>-68,51; 228,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,39%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>-9,05%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 15,4</t>
+          <t>-1,04; 8,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 11,25</t>
+          <t>-5,08; 3,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,75</t>
+          <t>-4,81; 3,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 13,53</t>
+          <t>-14,45; 13,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 144,65</t>
+          <t>-8,49; 120,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 93,81</t>
+          <t>-41,78; 43,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 44,73</t>
+          <t>-42,61; 56,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,51; 228,84</t>
+          <t>-67,72; 128,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,76%</t>
+          <t>-12,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 4,81</t>
+          <t>-16,5; 4,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 9,18</t>
+          <t>-7,2; 12,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 7,66</t>
+          <t>-9,12; 10,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 21,84</t>
+          <t>-22,49; 27,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 13,51</t>
+          <t>-31,06; 11,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 32,22</t>
+          <t>-17,46; 38,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 23,3</t>
+          <t>-18,75; 28,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 94,58</t>
+          <t>-41,11; 99,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,39%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>-15,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>-17,56%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 15,4</t>
+          <t>0,19; 11,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 11,25</t>
+          <t>-2,92; 8,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,75</t>
+          <t>-9,71; 2,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 13,53</t>
+          <t>-16,15; 12,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,21; 144,65</t>
+          <t>0,48; 65,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 93,81</t>
+          <t>-14,43; 55,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 44,73</t>
+          <t>-41,15; 15,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,51; 228,84</t>
+          <t>-73,89; 200,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,15%</t>
+          <t>47,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>-5,64%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,38</t>
+          <t>-2,7; 13,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,53</t>
+          <t>-5,18; 8,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,94</t>
+          <t>-1,84; 10,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 13,44</t>
+          <t>-14,36; 15,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 120,98</t>
+          <t>-15,79; 133,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 43,86</t>
+          <t>-34,88; 96,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 56,54</t>
+          <t>-15,16; 162,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,72; 128,85</t>
+          <t>-75,1; 270,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-43,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,81</t>
+          <t>-1,68; 8,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,5</t>
+          <t>-4,35; 6,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,25</t>
+          <t>-10,22; 0,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 10,49</t>
+          <t>-17,22; 18,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 38,51</t>
+          <t>-21,47; 168,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 32,42</t>
+          <t>-39,02; 94,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 19,2</t>
+          <t>-73,08; 8,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 64,37</t>
+          <t>-73,0; 151,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,63%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 6,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 6,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 3,01</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 9,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 37,15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 34,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 17,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-35,42; 57,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP18A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 4,65</t>
+          <t>-16,36; 4,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 12,33</t>
+          <t>-5,88; 13,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 10,71</t>
+          <t>-8,99; 11,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 27,5</t>
+          <t>-21,61; 25,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 11,79</t>
+          <t>-31,34; 11,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 38,33</t>
+          <t>-14,03; 40,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 28,47</t>
+          <t>-18,42; 29,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 99,69</t>
+          <t>-41,01; 79,49</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 11,72</t>
+          <t>-0,19; 11,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 8,52</t>
+          <t>-3,79; 8,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 2,88</t>
+          <t>-8,98; 3,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 12,41</t>
+          <t>-16,72; 11,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 65,13</t>
+          <t>-0,43; 67,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 55,47</t>
+          <t>-17,3; 55,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 15,69</t>
+          <t>-38,65; 18,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,89; 200,37</t>
+          <t>-80,62; 133,41</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 13,24</t>
+          <t>-2,28; 12,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 8,32</t>
+          <t>-4,87; 8,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 10,93</t>
+          <t>-1,12; 10,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 15,07</t>
+          <t>-15,63; 14,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 133,36</t>
+          <t>-15,84; 128,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 96,47</t>
+          <t>-32,26; 89,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 162,78</t>
+          <t>-12,36; 153,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,1; 270,38</t>
+          <t>-76,22; 295,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 8,39</t>
+          <t>-1,53; 7,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 6,57</t>
+          <t>-4,69; 6,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 0,46</t>
+          <t>-10,14; 0,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 18,11</t>
+          <t>-16,93; 19,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 168,58</t>
+          <t>-18,99; 172,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 94,18</t>
+          <t>-40,77; 100,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,08; 8,7</t>
+          <t>-72,36; 16,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,0; 151,63</t>
+          <t>-70,72; 182,48</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,81</t>
+          <t>-0,68; 6,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,02</t>
+          <t>-1,3; 6,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,01</t>
+          <t>-4,02; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 9,64</t>
+          <t>-9,09; 8,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 37,15</t>
+          <t>-3,3; 36,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 34,51</t>
+          <t>-6,28; 34,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 17,15</t>
+          <t>-19,59; 15,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,42; 57,99</t>
+          <t>-37,6; 53,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 4,8</t>
+          <t>-15,99; 5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 13,07</t>
+          <t>-6,59; 12,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 11,1</t>
+          <t>-9,43; 10,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 25,96</t>
+          <t>-19,62; 28,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 11,66</t>
+          <t>-31,28; 11,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 40,43</t>
+          <t>-15,39; 37,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 29,56</t>
+          <t>-19,33; 29,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 79,49</t>
+          <t>-35,75; 95,52</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,56%</t>
+          <t>-15,08%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 11,73</t>
+          <t>0,18; 12,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 8,47</t>
+          <t>-2,79; 9,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 3,23</t>
+          <t>-8,92; 2,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 11,35</t>
+          <t>-15,3; 13,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 67,13</t>
+          <t>0,18; 67,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 55,36</t>
+          <t>-14,45; 64,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 18,64</t>
+          <t>-38,08; 17,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,62; 133,41</t>
+          <t>-70,95; 206,61</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>-8,31%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 12,93</t>
+          <t>-2,59; 13,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,32</t>
+          <t>-5,35; 7,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 10,24</t>
+          <t>-1,19; 9,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 14,5</t>
+          <t>-14,5; 12,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 128,8</t>
+          <t>-15,54; 133,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 89,92</t>
+          <t>-34,15; 85,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 153,19</t>
+          <t>-14,17; 150,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,22; 295,95</t>
+          <t>-78,97; 245,96</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 7,97</t>
+          <t>-1,95; 8,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 6,52</t>
+          <t>-4,49; 6,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 0,99</t>
+          <t>-9,91; 0,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 19,84</t>
+          <t>-14,81; 19,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 172,53</t>
+          <t>-21,37; 204,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 100,13</t>
+          <t>-37,21; 100,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 16,35</t>
+          <t>-72,16; 5,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,72; 182,48</t>
+          <t>-66,4; 235,89</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 6,72</t>
+          <t>-0,4; 6,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,05</t>
+          <t>-1,41; 5,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,71</t>
+          <t>-4,07; 3,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 8,92</t>
+          <t>-8,15; 10,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 36,12</t>
+          <t>-1,47; 38,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 34,6</t>
+          <t>-6,74; 32,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 15,18</t>
+          <t>-18,97; 19,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 53,29</t>
+          <t>-35,11; 69,03</t>
         </is>
       </c>
     </row>
